--- a/ios_testcase.xlsx
+++ b/ios_testcase.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,17 +291,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -345,6 +348,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -352,6 +356,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -360,6 +365,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -368,6 +374,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -376,6 +383,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -383,6 +391,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -390,6 +399,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -398,6 +408,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -405,6 +416,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -413,6 +425,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -421,6 +434,7 @@
       <sz val="11"/>
       <color theme="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1215,10 +1229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1485,7 +1499,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1493,7 +1507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1501,7 +1515,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1509,12 +1523,135 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0</v>
       </c>
       <c r="B20">
         <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ios_testcase.xlsx
+++ b/ios_testcase.xlsx
@@ -28,27 +28,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
-  <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的－首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的－密码文本框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="84">
   <si>
     <t/>
   </si>
   <si>
     <t>StartPreview</t>
-  </si>
-  <si>
-    <t>ByAccessibilityId</t>
   </si>
   <si>
     <t>ByAccessibilityId对应元素的name</t>
@@ -252,10 +237,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>customSleep</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -272,7 +253,236 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ByAccessibilityId</t>
+    <t>findElementByClassName</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iosDoubleClick</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findElementByClassName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到设置界面</t>
+    <rPh sb="0" eb="1">
+      <t>tiao zhuan</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>she zhi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie mian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PickerWheel</t>
+  </si>
+  <si>
+    <t>pickerWheelChangeTopDefinition</t>
+  </si>
+  <si>
+    <t>滑动到最顶部</t>
+    <rPh sb="0" eb="1">
+      <t>hua dong</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zui ding bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findElementsByClassName-0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextField</t>
+  </si>
+  <si>
+    <t>TextField</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>clear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendKeys</t>
+  </si>
+  <si>
+    <t>sendKeys</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findElementsByClassName-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findElementsByClassName-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>Apply</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartPreview</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartPush</t>
+  </si>
+  <si>
+    <t>StopPreview</t>
+  </si>
+  <si>
+    <t>StopPush</t>
+  </si>
+  <si>
+    <t>pickerWheechangeDefinition</t>
+  </si>
+  <si>
+    <t>pickerWheechangeDefinition</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>customSleep</t>
+  </si>
+  <si>
+    <t>findElementByAccessibilityId</t>
+  </si>
+  <si>
+    <t>defaultSleep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findElementsByClassName-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rtmp://10.2.250.92/live_haibian/024</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里点击了Add按钮后, 会自动隐藏键盘, 否则需要手动隐藏键盘</t>
+    <rPh sb="0" eb="1">
+      <t>zhe li</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dian ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>le</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>an niu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi dong</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yin cang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>jian pan</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>fou ze</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>shou dong</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>yin cang</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>jian pan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iosDoubleClick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findElementsByClassName-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findElementsByClassName-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertEquals</t>
+  </si>
+  <si>
+    <t>关闭验证</t>
+    <rPh sb="0" eb="1">
+      <t>guan bi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan zheng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开验证</t>
+    <rPh sb="0" eb="1">
+      <t>d k</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yan zheng</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +490,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +663,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -608,7 +828,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,8 +979,254 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -776,8 +1242,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="132">
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -802,6 +1277,47 @@
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
     <cellStyle name="好" xfId="7" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="8" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="9" builtinId="22" customBuiltin="1"/>
@@ -827,6 +1343,47 @@
     <cellStyle name="已访问的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="131" builtinId="9" hidden="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1229,17 +1786,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
@@ -1251,37 +1809,37 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" ht="23" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1289,20 +1847,23 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>4</v>
+        <v>42</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1313,20 +1874,20 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1336,17 +1897,19 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4">
-        <v>5000</v>
-      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1356,18 +1919,18 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>44</v>
+      <c r="D5" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1377,18 +1940,21 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>44</v>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1398,17 +1964,19 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4">
-        <v>5000</v>
-      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1418,11 +1986,18 @@
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1432,8 +2007,18 @@
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1443,6 +2028,16 @@
       <c r="B10">
         <v>8</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1452,6 +2047,15 @@
       <c r="B11">
         <v>9</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1461,15 +2065,34 @@
       <c r="B12">
         <v>10</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>655000</v>
+      </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1479,6 +2102,16 @@
       <c r="B14">
         <v>12</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -1488,170 +2121,1138 @@
       <c r="B15">
         <v>13</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="5"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
         <v>14</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23">
+        <v>720</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24">
+        <v>1080</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="D28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
         <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>6</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>6</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G78" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>7</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>7</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A81">
+        <v>7</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A82">
+        <v>7</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A83">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1676,81 +3277,81 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2"/>
     </row>

--- a/ios_testcase.xlsx
+++ b/ios_testcase.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MAMIAN/GitHub/magaofei_appium_junit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MAMIAN/GitHub/MagaofeiAppium/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TALPublish" sheetId="12" r:id="rId1"/>
-    <sheet name="规范" sheetId="13" r:id="rId2"/>
+    <sheet name="规范和说明" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="84">
-  <si>
-    <t/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="92">
   <si>
     <t>StartPreview</t>
   </si>
@@ -49,22 +46,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>ByClassName对应元素的类名</t>
-    <rPh sb="11" eb="12">
-      <t>dui ying</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>yuan su</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>de</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>lei ming</t>
-    </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>测试用例从0开始</t>
     <rPh sb="0" eb="1">
       <t>ce shi</t>
@@ -130,9 +111,6 @@
   </si>
   <si>
     <t>TimeOut</t>
-  </si>
-  <si>
-    <t>TimeOut</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -484,13 +462,377 @@
       <t>yan zheng</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>必填,默认以0开头, 相同的测试用例数字必须相同, 下一个测试用例值递增</t>
+    <rPh sb="0" eb="1">
+      <t>bi tian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai tou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>xiang tong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>de</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ce shi</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yong li</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>shu zi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xiang tong</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>xia yi ge</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ce shi yong li</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>di zeng</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必填项</t>
+    <rPh sb="0" eb="1">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>bi tian xiang</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xiang</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ByClassName对应元素的类名,由于返回的是多个,所以需要在后面加上-和数字, 这个数字是索引的下标, 代表了这个控件元素在整个屏幕中是第几个</t>
+    <rPh sb="11" eb="12">
+      <t>dui ying</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yuan su</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>lei ming</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>you yu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>fan hui</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>de</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>duo ge</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>suo yi</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>hou mian</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>jia shang</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>he</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>shu zi</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>shu zi</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>suo yin</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>de</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>xia biao</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>biao</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>dai biao l</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>yuan su</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>zheng ge</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ping mu zhong</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>di ji ge</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意:每次更改完毕后记得保存才会生效.</t>
+    <rPh sb="0" eb="1">
+      <t>zhu yi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mei ci</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>geng gai</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wan bi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ji de</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>bao cun</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>cai hui</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>sheng xiao</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，代表的定位方式，目前实现的有ByAccessibilityId、ByClassName</t>
+    <rPh sb="0" eb="1">
+      <t>bi tian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dai biao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ding wei</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang shi</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>mu qian</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>you</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填,目前实现的方法有click、sendkeys、defaultSleep（默认等待1秒）、customSleep、clear、assertEquals、iosDoubleCLick、pickerWheelChangeTopDefinition、pickerWheel，如果是sleep这类方法可以不用填后边的定位方式和控键元素</t>
+    <rPh sb="0" eb="1">
+      <t>bi tian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mu qian</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi xian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fang fa</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>you</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>deng dai</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>miao</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ru guo</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>zhe lei</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>fang fa</t>
+    </rPh>
+    <rPh sb="148" eb="149">
+      <t>ke yi</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>bu yong</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>tian</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>hou bian</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>de</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>ding wei</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>fang shi</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>he</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>kong jian</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>yuan su</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填，描述空间元素的值</t>
+    <rPh sb="0" eb="1">
+      <t>bi tian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>miao shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kong jian yuan su</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>de</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来输入参数，多个参数以英文逗号,代替</t>
+    <rPh sb="0" eb="1">
+      <t>yong lai</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shu ru r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo ge</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ying wen</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dou hao</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dai ti</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrMessage</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <rPh sb="0" eb="1">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -673,6 +1015,18 @@
       <color rgb="FF000000"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1226,7 +1580,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1249,6 +1603,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1786,57 +2146,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.83203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23" x14ac:dyDescent="0.15">
@@ -1847,24 +2207,18 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" t="s">
-        <v>0</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
@@ -1874,20 +2228,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1898,19 +2248,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="I4" s="1"/>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
@@ -1920,17 +2266,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -1941,20 +2283,16 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>30</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1965,19 +2303,15 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" s="4"/>
-      <c r="I7" s="1"/>
-      <c r="J7" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
@@ -1987,17 +2321,13 @@
         <v>6</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -2008,18 +2338,17 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
-      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -2029,16 +2358,15 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
@@ -2048,15 +2376,14 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
@@ -2066,34 +2393,32 @@
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12">
         <v>655000</v>
       </c>
-      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
@@ -2103,16 +2428,15 @@
         <v>12</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G14" s="2"/>
-      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
@@ -2122,44 +2446,42 @@
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="1"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2171,16 +2493,15 @@
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
@@ -2190,13 +2511,13 @@
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I19" s="1"/>
     </row>
@@ -2208,13 +2529,13 @@
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -2223,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2234,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="1"/>
     </row>
@@ -2255,55 +2576,53 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>720</v>
       </c>
-      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G24">
-        <v>1080</v>
-      </c>
-      <c r="I24" s="1"/>
+        <v>1280</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -2315,7 +2634,7 @@
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2331,13 +2650,13 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -2348,13 +2667,13 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
@@ -2365,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
@@ -2388,13 +2707,13 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G30" s="2" t="b">
         <v>0</v>
@@ -2408,13 +2727,13 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2425,13 +2744,13 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -2442,13 +2761,13 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -2459,7 +2778,7 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2475,13 +2794,13 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -2492,13 +2811,13 @@
         <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -2509,17 +2828,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
@@ -2529,13 +2846,13 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G38" s="2" t="b">
         <v>0</v>
@@ -2549,13 +2866,13 @@
         <v>2</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -2567,13 +2884,13 @@
         <v>3</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="2"/>
     </row>
@@ -2585,13 +2902,13 @@
         <v>4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
@@ -2602,7 +2919,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2619,13 +2936,13 @@
         <v>6</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G43" s="2"/>
     </row>
@@ -2637,13 +2954,13 @@
         <v>7</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
@@ -2654,16 +2971,16 @@
         <v>8</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
@@ -2671,13 +2988,13 @@
         <v>3</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G46" s="2" t="b">
         <v>0</v>
@@ -2688,13 +3005,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G47" s="2"/>
     </row>
@@ -2703,13 +3020,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="2"/>
     </row>
@@ -2718,13 +3035,13 @@
         <v>3</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
@@ -2732,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2746,13 +3063,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G51" s="2"/>
     </row>
@@ -2761,13 +3078,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
@@ -2775,16 +3092,16 @@
         <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
@@ -2792,13 +3109,13 @@
         <v>4</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G54" s="2" t="b">
         <v>0</v>
@@ -2809,13 +3126,13 @@
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G55" s="2"/>
     </row>
@@ -2824,13 +3141,13 @@
         <v>4</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="2"/>
     </row>
@@ -2839,13 +3156,13 @@
         <v>4</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
@@ -2853,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2867,13 +3184,13 @@
         <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G59" s="2"/>
     </row>
@@ -2882,13 +3199,13 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.15">
@@ -2896,16 +3213,16 @@
         <v>5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.15">
@@ -2913,13 +3230,13 @@
         <v>5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G62" s="2" t="b">
         <v>0</v>
@@ -2931,13 +3248,13 @@
         <v>5</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H63" s="2"/>
     </row>
@@ -2946,13 +3263,13 @@
         <v>5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" s="2"/>
     </row>
@@ -2961,13 +3278,13 @@
         <v>5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
@@ -2975,7 +3292,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2989,13 +3306,13 @@
         <v>5</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G67" s="2"/>
     </row>
@@ -3004,13 +3321,13 @@
         <v>5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.15">
@@ -3018,16 +3335,16 @@
         <v>6</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.15">
@@ -3035,13 +3352,13 @@
         <v>6</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G70" s="2" t="b">
         <v>0</v>
@@ -3052,13 +3369,13 @@
         <v>6</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G71" s="2"/>
     </row>
@@ -3067,13 +3384,13 @@
         <v>6</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2"/>
     </row>
@@ -3082,13 +3399,13 @@
         <v>6</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.15">
@@ -3096,7 +3413,7 @@
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -3110,13 +3427,13 @@
         <v>6</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G75" s="2"/>
     </row>
@@ -3125,13 +3442,13 @@
         <v>6</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.15">
@@ -3139,16 +3456,16 @@
         <v>7</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.15">
@@ -3156,13 +3473,13 @@
         <v>7</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G78" s="2" t="b">
         <v>0</v>
@@ -3173,13 +3490,13 @@
         <v>7</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G79" s="2"/>
     </row>
@@ -3188,36 +3505,36 @@
         <v>7</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>7</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>7</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -3226,33 +3543,2033 @@
       </c>
       <c r="H82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>7</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>7</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H94" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I94" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J94" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H96" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I96" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H97" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I97" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J97" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I98" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J98" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H99" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J99" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H100" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I102" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J102" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H103" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I103" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J103" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I104" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J104" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J105" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H106" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I106" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J106" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I108" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J108" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J109" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H110" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I110" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J110" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J111" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H112" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I112" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J112" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H114" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I114" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H115" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I115" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H117" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I117" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I118" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I121" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J121" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H136" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H137" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H138" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I138" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H139" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H145" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H146" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H148" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H149" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H150" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H151" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H152" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I153" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J153" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H154" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H155" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="8"/>
+      <c r="G156" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H156" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H157" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I157" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H158" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8"/>
+      <c r="G161" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="8"/>
+      <c r="G162" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J164" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8"/>
+      <c r="G167" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J168" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="8"/>
+      <c r="G170" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J170" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H171" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I171" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J171" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="8"/>
+      <c r="G172" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H172" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I172" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J172" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H173" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I173" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J173" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H174" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I174" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J174" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H175" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I175" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J175" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J176" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8"/>
+      <c r="G177" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="8"/>
+      <c r="G178" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J178" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="8"/>
+      <c r="G179" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I180" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J180" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H181" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I181" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J181" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I182" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J182" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H183" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I183" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J183" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J184" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I186" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J186" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I187" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J187" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H188" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I188" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J188" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I189" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J189" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="18" x14ac:dyDescent="0.15">
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I190" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J190" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3264,99 +5581,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
       <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
